--- a/Approach/1 - Communication/prompts creation process/Level 4/stating_intentions_V2_declaration_of_policy vs declaration_of_target vs  stating_goal_res.xlsx
+++ b/Approach/1 - Communication/prompts creation process/Level 4/stating_intentions_V2_declaration_of_policy vs declaration_of_target vs  stating_goal_res.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\Communication\prompts creation process\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ludov\Desktop\Thesis\Chapters\GitHub repository\Approach\1 - Communication\prompts creation process\Level 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EF6AA-A405-4B18-BB68-E9712990B5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852132A9-0179-4504-840E-415CA8EAF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12000" windowHeight="12900" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="4" r:id="rId1"/>
@@ -318,6 +318,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -473,10 +474,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -484,15 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,20 +799,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D8600E-27CC-4C93-8D72-E64B7F1B9E70}">
   <dimension ref="C5:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="3:7" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1367,9 +1368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0933F4-62D4-4A5C-B614-0F21F46BD6FC}">
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE2" sqref="AE2:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,41 +1382,41 @@
       <c r="A1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
       <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="20"/>
       <c r="O1" s="20"/>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
       <c r="S1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="20"/>
       <c r="U1" s="20"/>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
       <c r="Y1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="Z1" s="20"/>
       <c r="AA1" s="20"/>
-      <c r="AB1" s="19" t="s">
+      <c r="AB1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
       <c r="AE1" s="20" t="s">
         <v>12</v>
       </c>
@@ -1423,46 +1424,46 @@
       <c r="AG1" s="20"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="23" t="s">
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="21" t="s">
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21" t="s">
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="22" t="s">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22" t="s">
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
     </row>
     <row r="3" spans="1:33" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3872,6 +3873,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="S1:U1"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
@@ -3880,14 +3889,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3898,7 +3899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C328B27A-9962-48E6-9E5F-AF6C9D074F79}">
   <dimension ref="B2:J14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4017,6 +4018,10 @@
       <c r="D10" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="F10">
+        <f>AVERAGE(results!AD35,results!AG35)</f>
+        <v>73.333333333333329</v>
+      </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
